--- a/organ/v2.0.0/organ-v2.0.0.xlsx
+++ b/organ/v2.0.0/organ-v2.0.0.xlsx
@@ -251,6 +251,12 @@
     <t>transport_solution</t>
   </si>
   <si>
+    <t>PBS</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0100046</t>
+  </si>
+  <si>
     <t>Saline (Buffered)</t>
   </si>
   <si>
@@ -263,16 +269,10 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C185409</t>
   </si>
   <si>
-    <t>PBS (1x)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000117</t>
-  </si>
-  <si>
-    <t>Formalin (10%; NBF)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000127</t>
+    <t>NBF (Neutral Buffered Formalin)</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBIB_0000213</t>
   </si>
   <si>
     <t>RPMI</t>
@@ -449,7 +449,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-03T09:15:41-07:00</t>
+    <t>2023-08-04T07:36:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1045,50 +1045,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
